--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1389109.360761164</v>
+        <v>-1391667.396382899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12557642.87455484</v>
+        <v>12560720.06231649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14507436.36834926</v>
+        <v>14507067.89359195</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>245.9591463715176</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>162.7881310667454</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.0233064626824</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349997</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736371</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.5862749777978</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T3" t="n">
-        <v>190.8126513536573</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7887366401506</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>60.99328910146065</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>48.76758222882271</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>247.091624415072</v>
+        <v>265.1843234240121</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>160.7035496952604</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>35.65326387230748</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>238.6591887249604</v>
+        <v>116.050197938155</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>59.39898708896923</v>
+        <v>150.5126501306595</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>51.36569740310381</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184355</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833812</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0.2811815126420993</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703221</v>
       </c>
       <c r="H19" t="n">
-        <v>103.8784673763408</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>207.0967504439649</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>22.10695458833897</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>149.9095691544921</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>70.04554881124309</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179031</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652637</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1810.7122410045</v>
+        <v>2345.482142851371</v>
       </c>
       <c r="C2" t="n">
-        <v>1441.749724064088</v>
+        <v>1976.519625910959</v>
       </c>
       <c r="D2" t="n">
-        <v>1277.317268441113</v>
+        <v>1618.253927304209</v>
       </c>
       <c r="E2" t="n">
-        <v>891.5290158428688</v>
+        <v>1232.465674705964</v>
       </c>
       <c r="F2" t="n">
-        <v>480.5431110532613</v>
+        <v>821.4797699163569</v>
       </c>
       <c r="G2" t="n">
-        <v>65.42565911316237</v>
+        <v>406.3950511722217</v>
       </c>
       <c r="H2" t="n">
-        <v>65.42565911316237</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316237</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725623</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K2" t="n">
-        <v>578.770220618394</v>
+        <v>586.364312131902</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887445</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064182</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.54019874618</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767915</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303805</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301003</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658118</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S2" t="n">
-        <v>3271.282955658118</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T2" t="n">
-        <v>3271.282955658118</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="U2" t="n">
-        <v>3271.282955658118</v>
+        <v>2946.694380314937</v>
       </c>
       <c r="V2" t="n">
-        <v>2940.220068314547</v>
+        <v>2946.694380314937</v>
       </c>
       <c r="W2" t="n">
-        <v>2587.451413044433</v>
+        <v>2593.925725044823</v>
       </c>
       <c r="X2" t="n">
-        <v>2587.451413044433</v>
+        <v>2593.925725044823</v>
       </c>
       <c r="Y2" t="n">
-        <v>2197.312081068621</v>
+        <v>2593.925725044823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>165.7864839520666</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158295</v>
+        <v>75.22119252365746</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316237</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056106</v>
+        <v>159.2853526912743</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794821</v>
+        <v>396.5106591183473</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656277</v>
+        <v>761.8119001858315</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366258</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102523</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176383</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664691</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2034.575998864394</v>
+        <v>2115.602041831897</v>
       </c>
       <c r="C4" t="n">
-        <v>1972.966615933625</v>
+        <v>2115.602041831897</v>
       </c>
       <c r="D4" t="n">
-        <v>1822.84997652129</v>
+        <v>1965.485402419562</v>
       </c>
       <c r="E4" t="n">
-        <v>1674.936882938896</v>
+        <v>1916.225218350044</v>
       </c>
       <c r="F4" t="n">
-        <v>1528.046935440986</v>
+        <v>1769.335270852133</v>
       </c>
       <c r="G4" t="n">
-        <v>1528.046935440986</v>
+        <v>1601.626930960129</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440986</v>
+        <v>1455.360815133848</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621747</v>
+        <v>1455.360815133848</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726846</v>
+        <v>1500.102109334508</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248736</v>
+        <v>1703.462636402272</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412497</v>
+        <v>2019.220531073013</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630628</v>
+        <v>2362.532081574126</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.58155235062</v>
+        <v>2703.11506716522</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744369</v>
+        <v>3001.68228379772</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372346</v>
+        <v>3233.637434478459</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658118</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="R4" t="n">
-        <v>3271.282955658118</v>
+        <v>3220.718173349748</v>
       </c>
       <c r="S4" t="n">
-        <v>3271.282955658118</v>
+        <v>3028.936382246499</v>
       </c>
       <c r="T4" t="n">
-        <v>3049.430089880104</v>
+        <v>2807.146252858208</v>
       </c>
       <c r="U4" t="n">
-        <v>2760.326121937481</v>
+        <v>2518.043085805667</v>
       </c>
       <c r="V4" t="n">
-        <v>2505.641633731594</v>
+        <v>2518.043085805667</v>
       </c>
       <c r="W4" t="n">
-        <v>2216.224463694633</v>
+        <v>2518.043085805667</v>
       </c>
       <c r="X4" t="n">
-        <v>2216.224463694633</v>
+        <v>2518.043085805667</v>
       </c>
       <c r="Y4" t="n">
-        <v>2216.224463694633</v>
+        <v>2297.250506662137</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C5" t="n">
         <v>1636.624422581789</v>
@@ -4556,61 +4556,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995486</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622425</v>
+        <v>987.6786382062463</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1891.281150237677</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1699.595266064503</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1477.82865063403</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1477.82865063403</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1477.82865063403</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1477.82865063403</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X7" t="n">
-        <v>1249.839099736012</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>1169.327103036486</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.7821255545683</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266614</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143257</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>752.5747046980985</v>
+        <v>750.3711588681558</v>
       </c>
       <c r="Y10" t="n">
-        <v>531.7821255545683</v>
+        <v>529.5785797246257</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098238</v>
+        <v>1016.580456911442</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819169</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871881</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578597</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5209,10 +5209,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5239,10 +5239,10 @@
         <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1419.021500885211</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1198.228921741681</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576786</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F19" t="n">
-        <v>365.9405071576786</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G19" t="n">
-        <v>198.7444078725585</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429801</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,19 +6066,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167116</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888047</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888047</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888047</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2424.632826420322</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2241.777992075226</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="U25" t="n">
-        <v>1893.082977031346</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.398488825459</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W25" t="n">
-        <v>1348.981318788499</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.991767890481</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.1991887469513</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6318,10 +6318,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150024</v>
@@ -7081,22 +7081,22 @@
         <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.265941231132</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319313</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150015</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7585,31 +7585,31 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,28 +7786,28 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.95355500661873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780253</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>136.774695291963</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>191.8949105539376</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962358</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>106.2535319971672</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>97.66638041774647</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.8307234716369</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.11729872947</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>45.55814437150804</v>
       </c>
     </row>
     <row r="6">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32.89260457060161</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012055</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>285.9032928766021</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="H19" t="n">
-        <v>36.41624546988314</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>79.42624789262605</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>44.26829212178271</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>136.2749052347521</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>216.1389255780011</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194265</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1061751.81149883</v>
+        <v>1066788.109676674</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1284203.678624874</v>
+        <v>1278582.714772317</v>
       </c>
     </row>
     <row r="4">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>136126.9983738518</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>163483.0683144622</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380012</v>
@@ -26332,7 +26332,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="J2" t="n">
         <v>161429.3199380012</v>
@@ -26341,19 +26341,19 @@
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081207</v>
+        <v>1324592.616629868</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074555</v>
+        <v>3947.344390015242</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125532</v>
+        <v>216562.4822237808</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022668</v>
+        <v>952.8885570182491</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13002.08618742618</v>
+        <v>12422.53326902072</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>89504.10908220283</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26433,10 +26433,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26445,19 +26445,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
         <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031116</v>
+        <v>107642.9682537726</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1297981.546456288</v>
+        <v>-1308882.136723797</v>
       </c>
       <c r="C6" t="n">
-        <v>-49778.59386245158</v>
+        <v>-37911.39178987906</v>
       </c>
       <c r="D6" t="n">
-        <v>-35299.54154170604</v>
+        <v>-35299.54154170609</v>
       </c>
       <c r="E6" t="n">
-        <v>-277492.5918750792</v>
+        <v>-277527.3298005149</v>
       </c>
       <c r="F6" t="n">
-        <v>47919.86993227589</v>
+        <v>47885.13200684031</v>
       </c>
       <c r="G6" t="n">
-        <v>47919.86993227595</v>
+        <v>47885.13200684024</v>
       </c>
       <c r="H6" t="n">
-        <v>47919.86993227595</v>
+        <v>47885.13200684023</v>
       </c>
       <c r="I6" t="n">
-        <v>47919.86993227592</v>
+        <v>47885.13200684014</v>
       </c>
       <c r="J6" t="n">
-        <v>-166058.0194802772</v>
+        <v>-168677.3502169406</v>
       </c>
       <c r="K6" t="n">
-        <v>44424.62809125327</v>
+        <v>46932.24344982198</v>
       </c>
       <c r="L6" t="n">
-        <v>21238.74068039784</v>
+        <v>21238.74068039792</v>
       </c>
       <c r="M6" t="n">
-        <v>-44388.569261482</v>
+        <v>-44388.56926148204</v>
       </c>
       <c r="N6" t="n">
         <v>40666.45867402977</v>
       </c>
       <c r="O6" t="n">
-        <v>40666.45867402977</v>
+        <v>40666.45867402971</v>
       </c>
       <c r="P6" t="n">
-        <v>40666.45867402983</v>
+        <v>40666.45867402971</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145296</v>
+        <v>827.699019368993</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145296</v>
+        <v>827.699019368993</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776331</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145296</v>
+        <v>827.699019368993</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776331</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145296</v>
+        <v>827.699019368993</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776331</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>139.1463142409816</v>
+        <v>75.49547086053343</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6.543271403367413</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.27888879773985</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>131.0719119535086</v>
+        <v>253.680902740314</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>166.3106683000679</v>
+        <v>75.19700525837766</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436993</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215286</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907823</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402221</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377401</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528663</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573102</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006294</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365715</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551581</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231332</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R2" t="n">
-        <v>272.400161407178</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198308</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339795</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549593</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528248</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H3" t="n">
-        <v>22.4083507129965</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467871</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863114</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217039</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335566</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277054</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N3" t="n">
-        <v>603.448133029055</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594554</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736792</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498865</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871837</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604001</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164293</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242269</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393972</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695733</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621147</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248538</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166814</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889366</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120296</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N4" t="n">
-        <v>297.666617236925</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564135</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643763</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221716</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553258</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750221</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046969</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942168</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138027</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135358</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927596</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828791</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300375</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040384</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148848</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998886</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486837</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304589</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964466</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K3" t="n">
-        <v>236.821707347345</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536824</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056871</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457218</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O3" t="n">
-        <v>409.440904115011</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P3" t="n">
-        <v>337.0376277659677</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.191086563865</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818104</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907986</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492527</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738702</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161536</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704532</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292698</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047723</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304694</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
